--- a/Test Open Xml/testdata/testsetrowvalues_err.xlsx
+++ b/Test Open Xml/testdata/testsetrowvalues_err.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="R4ffc43e4889643b3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="R541af3874cd64f1d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Test Open Xml/testdata/testsetrowvalues_err.xlsx
+++ b/Test Open Xml/testdata/testsetrowvalues_err.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="R541af3874cd64f1d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="Ra42efd2e2dd34cd5"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Test Open Xml/testdata/testsetrowvalues_err.xlsx
+++ b/Test Open Xml/testdata/testsetrowvalues_err.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="Ra42efd2e2dd34cd5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="R426aef1357b44d8c"/>
   </x:sheets>
 </x:workbook>
 </file>
